--- a/QuestionsTemplate.xlsx
+++ b/QuestionsTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="191">
   <si>
     <t>quizTitle</t>
   </si>
@@ -36,12 +36,6 @@
     <t>nrOfQuestions</t>
   </si>
   <si>
-    <t>Тестовый опрос</t>
-  </si>
-  <si>
-    <t>Я тут просто делаю пример</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Вопрос 1</t>
   </si>
   <si>
-    <t>1 + 1 = …</t>
-  </si>
-  <si>
     <t>Тип вопроса</t>
   </si>
   <si>
@@ -63,57 +54,24 @@
     <t>Варианты ответов</t>
   </si>
   <si>
-    <t>Один,Два,Три</t>
-  </si>
-  <si>
     <t>Правильный ответ</t>
   </si>
   <si>
     <t>Сообщение для правильного ответа</t>
   </si>
   <si>
-    <t>Верный ответ</t>
-  </si>
-  <si>
     <t>Сообщение для ошибочного ответа</t>
   </si>
   <si>
-    <t>Мда кринж…</t>
-  </si>
-  <si>
     <t>Объяснение решения</t>
   </si>
   <si>
-    <t>1 + 1 = 2, потому что …</t>
-  </si>
-  <si>
     <t>Количество очков</t>
   </si>
   <si>
     <t>Вопрос 2</t>
   </si>
   <si>
-    <t>Необходимые знания для управления системами:</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>Поплавок карбюратора,Решение задачи о трех друзьях,Теория управления</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Сразу видно что умеешь управлять</t>
-  </si>
-  <si>
-    <t>Кто то тут не управленец</t>
-  </si>
-  <si>
-    <t>Нет ну тут все просто - просто не задавай глупых вопросов, всем управленцам нужно знать как работает поплавок карбюратора</t>
-  </si>
-  <si>
     <t>На листе с вопросами не должно быть ничего кроме двух первых заполненных столбцов</t>
   </si>
   <si>
@@ -145,13 +103,559 @@
   </si>
   <si>
     <t>Каждому вопросу необходимо задать его вес в очках - любое положительное целое число</t>
+  </si>
+  <si>
+    <t>Когда были проведены анализ и обобщение понятий, составляющих основу ТРИЗ-образования?</t>
+  </si>
+  <si>
+    <t>Вопрос 3</t>
+  </si>
+  <si>
+    <t>Вопрос 4</t>
+  </si>
+  <si>
+    <t>Вопрос 5</t>
+  </si>
+  <si>
+    <t>Вопрос 6</t>
+  </si>
+  <si>
+    <t>Вопрос 7</t>
+  </si>
+  <si>
+    <t>Вопрос 8</t>
+  </si>
+  <si>
+    <t>Вопрос 9</t>
+  </si>
+  <si>
+    <t>Вопрос 10</t>
+  </si>
+  <si>
+    <t>Вопрос 11</t>
+  </si>
+  <si>
+    <t>Вопрос 12</t>
+  </si>
+  <si>
+    <t>Вопрос 13</t>
+  </si>
+  <si>
+    <t>Вопрос 14</t>
+  </si>
+  <si>
+    <t>Вопрос 15</t>
+  </si>
+  <si>
+    <t>Вопрос 16</t>
+  </si>
+  <si>
+    <t>Вопрос 17</t>
+  </si>
+  <si>
+    <t>Вопрос 18</t>
+  </si>
+  <si>
+    <t>Вопрос 19</t>
+  </si>
+  <si>
+    <t>Вопрос 20</t>
+  </si>
+  <si>
+    <t>Вопрос 21</t>
+  </si>
+  <si>
+    <t>Вопрос 22</t>
+  </si>
+  <si>
+    <t>Вопрос 23</t>
+  </si>
+  <si>
+    <t>Вопрос 24</t>
+  </si>
+  <si>
+    <t>Вопрос 25</t>
+  </si>
+  <si>
+    <t>Вопрос 26</t>
+  </si>
+  <si>
+    <t>Вопрос 27</t>
+  </si>
+  <si>
+    <t>Вопрос 28</t>
+  </si>
+  <si>
+    <t>Вопрос 29</t>
+  </si>
+  <si>
+    <t>Вопрос 30</t>
+  </si>
+  <si>
+    <t>С начала 90-х гг. ХХ, В конце 90-х, В начале 2000-х</t>
+  </si>
+  <si>
+    <t>анализ и обобщение понятий, составляющих основу ТРИЗ-образования в начале 90-х гг. ХХ</t>
+  </si>
+  <si>
+    <t>Какую  область исследования сформировала необходимость преподавания ТРИЗ?</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика, ТРИЗ сформировала необходимость преподавания в области философии и истории искусства, ТРИЗ не требует преподавания она изучается самостоятельно</t>
+  </si>
+  <si>
+    <t>необходимость преподавания ТРИЗ сформировала область исследования ТРИЗ-педагогики</t>
+  </si>
+  <si>
+    <t>Что представлено в работе, выполненной при поддержке корейско-российского Центра сотрудничества по науке и технологии KORUSTEC?</t>
+  </si>
+  <si>
+    <t>представлен анализ современного состояния ТРИЗ-образования его концептуальные программно-технологические и исторические аспекты развития, В работе представлены исследования по археологии в Австралии, исследователи представили новый способ возделывания картофеля на Луне</t>
+  </si>
+  <si>
+    <t>в работе, выполненной при поддержке корейско-российского Центра сотрудничества по науке и технологии KORUSTEC представлен анализ современного состояния ТРИЗ-образования, его концептуальные, программно-технологические и исторические аспекты развития</t>
+  </si>
+  <si>
+    <t>Что происходит с количеством исследований в области ТРИЗ-образования?</t>
+  </si>
+  <si>
+    <t>количество исследований растет с каждым годом появляются разноречивые определения понятий ТРИЗ-образования в словарях и пособиях, С количеством исследований в области ТРИЗ-образования происходит странное явление: каждый год они уменьшаются в геометрической прогрессии, С количеством исследований в области ТРИЗ-образования происходит странный эффект: каждый год они уменьшаются</t>
+  </si>
+  <si>
+    <t>так как ТРИЗ-образование с каждым годом набирает популярность, количество исследований растет с каждым годом и начинают появляться множество различных трактовок и определений</t>
+  </si>
+  <si>
+    <t>Теория решения изобретательских задач (ТРИЗ) - это</t>
+  </si>
+  <si>
+    <t>наука о решении проблем основанная на объективных закономерностях развития систем, это концепция основанная на предположении что все местные жители Марса обладают врожденными способностями к изобретательству, это секретный кодекс содержащий магические формулы и заклинания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под ТРИЗ понимается набор методик, предназначенных для решения различных задач и усовершенствования систем. </t>
+  </si>
+  <si>
+    <t>Что должно стать с образованием, чтобы стать движущей силой современного общества?</t>
+  </si>
+  <si>
+    <t>Образование должно измениться</t>
+  </si>
+  <si>
+    <t>Образование должно измениться, Чтобы стать движущей силой современного общества образование должно перестать существовать в физическом мире и стать виртуальной реальностью, Образование должно оставаться недоступным и неизменным чтобы оставаться движущей силой современного общества</t>
+  </si>
+  <si>
+    <t>Какая задача формирования личности становится актуальной?</t>
+  </si>
+  <si>
+    <t>Cамостоятельно добывать новые знания и оперативно корректировать свою картину мира в соответствии с вновь полученными знаниями, Формирование личности становится актуальным для вопросов о погоде, Формирование личности не имеет значения и не является актуальной задачей</t>
+  </si>
+  <si>
+    <t>Основной целью развития личности является воспитание гармоничного члена социума, способного принимать самостоятельные решения, добывать новые знания, видеть новые горизонты</t>
+  </si>
+  <si>
+    <t>Для каких стран на сегодняшний день ТРИЗ доступна для развития в системах образования?</t>
+  </si>
+  <si>
+    <t>Европы Азии и Латинской Америки, Для стран на сегодняшний день ТРИЗ доступна только для развития в странах где ежедневно снег идет вверх, ТРИЗ доступна для развития в системах образования только для России</t>
+  </si>
+  <si>
+    <t>В странах Европы, Азии и Латинской Америки на сегодняшний день ТРИЗ доступна для развития в системах образования</t>
+  </si>
+  <si>
+    <t>Кто написал программы обучающих семинаров по основам классической ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Г.С. Альтшуллер, программы обучающих семинаров по основам классической ТРИЗ были написаны Николаем Генриховичем Рубином, программы обучающих семинаров по основам классической ТРИЗ были написаны Г.С. Контом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Г.С. Альтшуллер написал программы обучающих семинаров по основам классической ТРИЗ</t>
+  </si>
+  <si>
+    <t>Предметная дидактика – это</t>
+  </si>
+  <si>
+    <t>отбор и формирование содержания предмета ТРИЗ а также соответствующих методов, Это древний искусственный язык созданный группой экспертов-лингвистов чтобы облегчить коммуникацию между учеником и предметом обучения, Это практика использования особых магнитных полей и энергетических потоков в классе чтобы создать атмосферу в которой знания и информация проникают в сознание учеников.</t>
+  </si>
+  <si>
+    <t>Предметная дидактика – это отбор и формирование содержания предмета ТРИЗ, а также соответствующих методов.</t>
+  </si>
+  <si>
+    <t>Что  в целом может стать одной из задач ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Анализ и прогноз образования на основе использования законов развития систем, В целом одной из задач ТРИЗ-педагогики может быть обучение учеников плохо решать задачи и развитие их низкого творческого потенциала, В целом одной из задач ТРИЗ-педагогики может быть формирование учениками устойчивых привычек низкого критического мышления и отсутствия творческой активности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отличительная особенность ТРИЗ-педагогики заключается в том, что ребенок в игровой форме усваивает обобщенные алгоритмы организации собственной творческой деятельности. </t>
+  </si>
+  <si>
+    <t>Что представляет собой ТРИЗ-педагогика как научное направление?</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика представляет собой интегрированное научное направление исследующее рациональные средства образования (воспитания и обучения) и развития творческой личности, ТРИЗ-педагогика как научное направление не продемонстрировала своей эффективности, ТРИЗ-педагогика как научное направление представляет собой нечто абстрактное и неуловимое лишенное научных оснований и неспособное принести реальную пользу в образовательном процессе</t>
+  </si>
+  <si>
+    <t>выделение проблем с помощью ТРИЗ-педагогики позволило совершенствование педагогической практики и повышение эффективности образовательного процесса, обеспечивающего реализацию творческой составляющей содержания.</t>
+  </si>
+  <si>
+    <t>Как описывается учебная деятельность, связанная с ТРИЗ-педагогикой?</t>
+  </si>
+  <si>
+    <t>Учебная деятельность связанная с ТРИЗ-педагогикой описывается как организованная учебная деятельность по формированию у учащихся качеств творческой личности с целью максимального раскрытия ее способностей и реализации ее возможностей на благо всего общества, Учебная деятельность связанная с ТРИЗ-педагогикой описывается как механическое запоминание стандартных решений и алгоритмов без участия творческого мышления, Учебная деятельность связанная с ТРИЗ-педагогикой описывается как процесс в котором ученики сами приходят к правильным ответам без поддержки и помощи педагога</t>
+  </si>
+  <si>
+    <t>В целом одной из задач ТРИЗ-педагогики может стать анализ и прогноз</t>
+  </si>
+  <si>
+    <t>на какие особенности ТРИЗ-педагогики большинство специалистов указывают?</t>
+  </si>
+  <si>
+    <t>• направленность на формирование творческой личности готовой к устойчивому саморазвитию и совершенствованию динамичного мира;
+• использование методологии ТРИЗ как содержания образования и как средства развития педагогических систем и процессов, Большинство специалистов указывают на отсутствие эмоциональной составляющей и интереса со стороны учащихся в рамках ТРИЗ-педагогики, Большинство специалистов указывают на сложность и неприменимость основных принципов ТРИЗ-педагогики в реальной педагогической практике</t>
+  </si>
+  <si>
+    <t>ТРИЗ-педагогика представляет собой интегрированное научное направление, исследующее рациональные средства образования (воспитания и обучения) и развития творческой личности.</t>
+  </si>
+  <si>
+    <t>Чем обусловлена востребованность технологий на базе ТРИЗ в педагогике?</t>
+  </si>
+  <si>
+    <t>Востребованность технологий на базе ТРИЗ в педагогике обусловлена возможностями ТРИЗ-образования решать задачи развития личности в творческой деятельности на технологическом уровне, Востребованность технологий на базе ТРИЗ в педагогике обусловлена их сложностью и неприменимостью в реальных образовательных процессах, Востребованность технологий на базе ТРИЗ в педагогике обусловлена их низкой эффективностью в развитии творческого мышления и критического мышления у учащихся</t>
+  </si>
+  <si>
+    <t>ТРИЗ, или теория решения изобретательских задач — набор методов решения задач и усовершенствования систем, в основе которых лежит креативный подход.</t>
+  </si>
+  <si>
+    <t>Какие методики входят в содержательный состав ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Содержательный состав ТРИЗ-педагогики включает в себя методики преподавания отдельных компонентов – ТРИЗ развития творческого воображения (РТВ) теории развития творческой личности (ТРТЛ) и использование методов ТРИЗ для решения проблем возникающих в образовательном процессе, В содержательный состав ТРИЗ-педагогики входят методики основанные на строгом контроле и дрессировке учащихся лишенные элементов самостоятельного творчества, В содержательный состав ТРИЗ-педагогики входят методики которые сосредоточены на запоминании фактов и формулах а не на развитии творческого потенциала</t>
+  </si>
+  <si>
+    <t>Какие разделы находятся в начале становления в ТРИЗ-педагогике?</t>
+  </si>
+  <si>
+    <t>В начале становления находятся разделы отражающие управление прогнозирование процесса формирования личности в творческой деятельности и психологическое сопровождение личности в творчестве, В ТРИЗ-педагогике разделы связанные с развитием индивидуальности и критического мышления находятся в начале своего становления, В ТРИЗ-педагогике разделы связанные с развитием индивидуальности и самостоятельности учащихся находятся в начале своего становления</t>
+  </si>
+  <si>
+    <t>Отличительная особенность ТРИЗ-педагогики заключается в том, что ребенок в игровой форме усваивает обобщенные алгоритмы организации собственной творческой деятельности</t>
+  </si>
+  <si>
+    <t>Что является основными источниками содержания ТРИЗ образования для школьников?</t>
+  </si>
+  <si>
+    <t>1) решательные инструменты ТРИЗ; 2) ТРТЛ; 3) РТВ; 4) общая теория сильного мышления (ОТСМ) на базе классической ТРИЗ, Основными источниками содержания ТРИЗ образования для школьников являются классическая литература и исследования не связанные с техническим творчеством и изобретательством, Основными источниками содержания ТРИЗ-образования для школьников являются сказки и фантастическая литература</t>
+  </si>
+  <si>
+    <t>Содержательный состав ТРИЗ-педагогики включает в себя методики преподавания отдельных компонентов – ТРИЗ, развития творческого воображения (РТВ), теории развития творческой личности (ТРТЛ) и использование методов ТРИЗ для решения проблем, возникающих в образовательном процессе.</t>
+  </si>
+  <si>
+    <t>Что является отличительным признаком ТРИЗ-педагогики от других систем творческого образования.</t>
+  </si>
+  <si>
+    <t>Содержание образования на базе ТРИЗ, Отличительным признаком ТРИЗ-педагогики от других систем творческого образования является отсутствие фокуса на развитии творческого мышления у учащихся, Отличительным признаком ТРИЗ-педагогики от других систем творческого образования является отсутствие акцента на развитие системного мышления и аналитических навыков</t>
+  </si>
+  <si>
+    <t>Какие категории представлены в группе решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Группа решательных инструментов ТРИЗ представлена двумя категориями – инструменты для типовых преобразований систем и инструменты для работы с нетиповыми проблемами, В группе решательных инструментов ТРИЗ отсутствуют категории они представлены только отдельными методами и инструментами, В группе решательных инструментов ТРИЗ отсутствуют категории они представлены только одним всеобъемлющим инструментом.</t>
+  </si>
+  <si>
+    <t>1) решательные инструменты ТРИЗ; 2) ТРТЛ; 3) РТВ; 4) общая теория сильного мышления (ОТСМ) на базе классической ТРИЗ.</t>
+  </si>
+  <si>
+    <t>Какие инструменты относятся к первой категории группы решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>законы развития технических систем (ЗРТС) стандарты на решение изобретательских задач и вепольный анализ типовые приемы разрешения противоречий банки эффектов, относятся только методы не позволяющие находить новые и оригинальные решения проблем,  инструменты которые только ограничивают и затрудняют процесс решения проблем</t>
+  </si>
+  <si>
+    <t>Что позволяет освоение инструментов первой категории группы решательных инструментов ТРИЗ?</t>
+  </si>
+  <si>
+    <t>Освоение этих инструментов позволяет решать изобретательские задачи как типовые с точки зрения ТРИЗ, Освоение инструментов первой категории группы решательных инструментов ТРИЗ не дает возможности для развития творческого мышления и нахождения инновационных решений, Освоение инструментов первой категории группы решательных инструментов ТРИЗ не дает возможности для нахождения новаторских решений и улучшения качества продуктов и процессов</t>
+  </si>
+  <si>
+    <t>Группа решательных инструментов ТРИЗ представлена двумя категориями – инструменты для типовых преобразований систем и инструменты для работы с нетиповыми проблемами.</t>
+  </si>
+  <si>
+    <t>Какие инструменты применяются в образовательном процессе с использованием законов эволюции технических систем?</t>
+  </si>
+  <si>
+    <t>В образовательном процессе применяются законы эволюции технических систем для определения места системы на эволюционной кривой и разработки решений которые обеспечивают выполнение этих законов для развития системы, В образовательном процессе с использованием законов эволюции технических систем не применяются никакие инструменты так как эти законы не имеют никакого отношения к образованию, В образовательном процессе с использованием законов эволюции технических систем применяются только инструменты основанные на ограничении и задержке развития технических систем чтобы сохранить их статус-кво.</t>
+  </si>
+  <si>
+    <t>К первой категории относятся законы развития технических систем (ЗРТС), стандарты на решение изобретательских задач и вепольный анализ, типовые приемы разрешения противоречий, банки эффектов</t>
+  </si>
+  <si>
+    <t>Какую категорию решательных инструментов в классической ТРИЗ относят к алгоритму решения изобретательских задач?</t>
+  </si>
+  <si>
+    <t>Вторая категория, Категорию решательных инструментов в классической ТРИЗ не относят к алгоритму решения изобретательских задач, К сотой категории решательных инструментов в классической ТРИЗ относится алгоритм решения изобретательских задач (АРИЗ)</t>
+  </si>
+  <si>
+    <t>Освоение этих инструментов позволяет решать изобретательские задачи как типовые с точки зрения ТРИЗ</t>
+  </si>
+  <si>
+    <t>Для какой цели предназначен алгоритм решения изобретательских задач (АРИЗ)?</t>
+  </si>
+  <si>
+    <t>Алгоритм решения изобретательских задач (АРИЗ) предназначен для поиска нестандартных решений, Алгоритм решения изобретательских задач (АРИЗ) предназначен для усложнения процесса решения и затруднения поиска решений, Алгоритм решения изобретательских задач (АРИЗ) предназначен для приложения в повседневной жизни и решения бытовых проблем</t>
+  </si>
+  <si>
+    <t>АРИЗ - уникальный инструмент для поиска нетривиальных идей,  выявления и решения многих творческих проблем</t>
+  </si>
+  <si>
+    <t>Что требуется для полноценного освоения ТРИЗ-содержания?</t>
+  </si>
+  <si>
+    <t>Полноценное освоение ТРИЗ-содержания требует изучения АРИЗ или его адаптированных версий как инструмента для работы с нетиповыми проблемами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полноценное освоение ТРИЗ-содержания требует изучения АРИЗ или его адаптированных версий как инструмента для работы с нетиповыми проблемами, Для полноценного освоения ТРИЗ-содержания требуется только поверхностное знание инструментов и правил, Ничего   человек обладает ТРИЗ-содержанием с самого рождения </t>
+  </si>
+  <si>
+    <t>Ко второй категории решательных инструментов в классической ТРИЗ относится алгоритм решения изобретательских задач (АРИЗ)</t>
+  </si>
+  <si>
+    <t>На какие две категории можно разделить содержание ТРТЛ?</t>
+  </si>
+  <si>
+    <t>Содержание ТРТЛ можно разделить на две категории: картотека биографий творческих личностей и качества и стратегия творческой личности, Содержание ТРТЛ нельзя разделить на две категории оно представлено единым комплексом без какой-либо структурированности, "Содержание ТРТЛ можно разделить на категории "История ТРИЗ" и "Технические примеры" не затрагивая других аспектов образования</t>
+  </si>
+  <si>
+    <t>АРИЗ - комплексная программа алгоритмического типа, основанная на законах развития технических систем и предназначенная для анализа и решения изобретательских задач</t>
+  </si>
+  <si>
+    <t>Какую задачу ставит перед собой ТРИЗ-педагогика в отношении формирования качеств творческой личности?</t>
+  </si>
+  <si>
+    <t>Одной из основных задач ТРИЗ-педагогики является формирование качеств творческой личности, ТРИЗ-педагогика не ставит перед собой задачу формирования качеств творческой личности ее основной целью является просто передача фактического материала, ТРИЗ-педагогика не ставит перед собой задачи формирования качеств творческой личности ее основная цель - развитие конформизма и следование стандартным решениям</t>
+  </si>
+  <si>
+    <t>Какой курс представлен наиболее полно в содержании ТРИЗ-педагогики?</t>
+  </si>
+  <si>
+    <t>Курс РТВ (Развитие Творческого Воображения) представлен наиболее полно в содержании ТРИЗ-педагогики, Наиболее полно в содержании ТРИЗ-педагогики представлен курс посвященный законам механики, Наиболее полно в содержании ТРИЗ-педагогики представлен курс по истории древних цивилизаций</t>
+  </si>
+  <si>
+    <t>Теория развития творческой личности – область знаний, изучающая взаимосвязь личности и системы, которую она развивает, внешние проявления творческого стиля жизни, стратегию постановки и достижения творческих целей.</t>
+  </si>
+  <si>
+    <t>Какие основные блоки включает в себя курс РТВ?</t>
+  </si>
+  <si>
+    <t>Основные блоки курса РТВ включают в себя приемы и методы генерации фантастических идей шкалу для оценки научно-фантастических идей неалгоритмические методы приоритетно используемые для развития воображения и снятия психологической инерции, Курс РТВ включает в себя основные блоки связанные с искусством пения и музыкальными инструментами, Курс РТВ включает в себя основные блоки связанные с физической культурой и спортом</t>
+  </si>
+  <si>
+    <t>В курс РТВ включены приемы фантазирования и методы РТВ10.</t>
+  </si>
+  <si>
+    <t>ну как так, иди читай учебник по новой</t>
+  </si>
+  <si>
+    <t>ты хорошо подготовился</t>
+  </si>
+  <si>
+    <t>Какие характеристики имеют неформализованные знания специалистов?</t>
+  </si>
+  <si>
+    <t>Неформализованные знания специалистов характеризуются неконкретностью субъективностью и приблизительностью, Неформализованные знания специалистов имеют легко измеряемые параметры и четкие определения, Неформализованные знания специалистов имеют строго формализованный и структурированный характер</t>
+  </si>
+  <si>
+    <t>Формализованное знание — это знания в конкретной форме, которое можно хранить и передавать в неизменном виде. Значит неформолизованные это полная противоположность</t>
+  </si>
+  <si>
+    <t>Какие характеристики имеют неформализованные задачи?</t>
+  </si>
+  <si>
+    <t>Неформализованные задачи характеризуются тем что их нельзя задать в числовой форме цели не могут быть выражены в терминах точно определенной целевой функции не существует алгоритмического решения задачи алгоритмическое решение может существовать но его нельзя использовать из-за ограничений ресурсов вычислительной системы, Неформализованные задачи характеризуются точными правилами и ясными решениями, Неформализованные задачи характеризуются ясностью и четкостью требуемых результатов а также простотой и структурированностью в выполнении</t>
+  </si>
+  <si>
+    <t>Какие особенности обычно присущи неформализованным задачам?</t>
+  </si>
+  <si>
+    <t>Обычно неформализованные задачи характеризуются ошибочностью неоднозначностью неполнотой и противоречивостью данных и знаний о программном обеспечении Они также могут иметь динамически изменяемые данные и знания а также большой размер пространства состояний что делает перебор при поиске решения сложным, Неформализованные задачи обычно имеют явную структуру и однозначные решения, Неформализованные задачи обычно характеризуются ясностью целей структурированностью и четкими требованиями что делает их легкими и простыми в решении</t>
+  </si>
+  <si>
+    <t>Чем отличаются системы искусственного интеллекта, включая экспертные системы, от систем обработки данных?</t>
+  </si>
+  <si>
+    <t>Отличие заключается в том что системы искусственного интеллекта используют символьное представление данных символьный вывод и эвристический поиск решения в отличие от систем обработки данных которые работают с числовыми данными и готовыми алгоритмами, Системы искусственного интеллекта включая экспертные системы и системы обработки данных отличаются только размером и скоростью обработки информации Обе они используют одинаковые алгоритмы и методы для работы с данными, Системы искусственного интеллекта включая экспертные системы не отличаются от систем обработки данных так как выполняют аналогичные функции и обрабатывают данные похожим образом</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ИИ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — технология, позволяющая системе, машине или компьютеру выполнять задачи, требующие разумного мышления, то есть имитировать поведение человека для постепенного обучения с использованием полученной информации и решения конкретных вопросов. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Системы обработки данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – это комплекс взаимодействующих методов и средств сбора и обработки электронной информации, необходимых для управления объектами с помощью электронно-вычислительных машин (ЭВМ) и других средств информационной техники.</t>
+    </r>
+  </si>
+  <si>
+    <t>В чем состоит специфика экспертных систем по сравнению с другими типами систем искусственного интеллекта?</t>
+  </si>
+  <si>
+    <t>Экспертные системы применяются для решения практически трудных задач их решения не уступают решениям человека-эксперта по качеству и эффективности. Решения экспертных систем могут быть объяснены на качественном уровне так как они способны рассуждать о своих знаниях и умозаключениях. Знания используемые в экспертных системах являются эвристическими экспериментальными и неопределенными так как решаемые задачи неформализованные или слабо формализованные. Экспертные системы также обеспечивают дружественный интерфейс с пользователем, Специфика экспертных систем в том что они не используют никаких специальных знаний или алгоритмов искусственного интеллекта. Они полагаются только на случайность и случайные вычисления для принятия решений, Экспертные системы не имеют особых специфических особенностей по сравнению с другими типами систем искусственного интеллекта. Они функционируют на основе тех же принципов и методов</t>
+  </si>
+  <si>
+    <t>Экспе́ртная систе́ма — компьютерная система, способная частично заменить специалиста-эксперта в разрешении проблемной ситуации.</t>
+  </si>
+  <si>
+    <t>Что определяет мощность экспертных систем?</t>
+  </si>
+  <si>
+    <t>Мощность экспертных систем в первую очередь определяется мощностью базы знаний а только во вторую - используемыми методами вывода. То есть важнее иметь разнообразные специальные знания чем общие процедуры вывода, Мощность экспертных систем определяется их способностью создавать неправильные выводы и делать ошибки в принятии решений. Чем больше ошибок и неправильных выводов делает экспертная система тем сильнее и мощнее она считается, Мощность экспертных систем определяется только процессорной мощностью компьютера на котором они работают</t>
+  </si>
+  <si>
+    <t>чем обширнее база знаний и методы ввода тем лучше экспертая система</t>
+  </si>
+  <si>
+    <t>Какие задачи решает экспертная система?</t>
+  </si>
+  <si>
+    <t>Экспертные системы решают практически трудные задачи которые требуют многолетнего образования и опыта у человека, Экспертная система не решает никаких задач и не предоставляет никакой ценной информации или рекомендаций, Экспертная система решает только простые рутинные задачи не способна обрабатывать сложные или нетипичные ситуации</t>
+  </si>
+  <si>
+    <t>Экспе́ртная систе́ма — компьютерная система, способная частично заменить специалиста-эксперта в разрешении проблемной ситуации</t>
+  </si>
+  <si>
+    <t>Что способна делать экспертная система в процессе работы?</t>
+  </si>
+  <si>
+    <t>В процессе работы экспертная система способна оперативно находить ответы на вопросы о происхождении событий давать рекомендации о действиях оценивать эффективность предпринятых действий и т.д, В процессе работы экспертная система не способна анализировать данные принимать решения или предоставлять рекомендации, Экспертная система не способна делать ничего в процессе работы она лишь хранит и предоставляет информацию анализируя вопросы и давая рекомендации на основе заранее заданных правил и знаний</t>
+  </si>
+  <si>
+    <t>Какие компоненты базы знаний составляют основу экспертной системы?</t>
+  </si>
+  <si>
+    <t>Основу базы знаний экспертной системы составляют факты и правила, Основой экспертной системы является ее алгоритм который обрабатывает информацию из базы знаний и принимает решения, Основу экспертной системы составляют только факты а правила не используются в базе знаний</t>
+  </si>
+  <si>
+    <t>Основу базы знаний экспертной системы составляют факты и правила</t>
+  </si>
+  <si>
+    <t>Что хранит база знаний экспертной системы?</t>
+  </si>
+  <si>
+    <t>База знаний экспертной системы хранит множество продукций которые в общем случае представляют собой правила, База знаний экспертной системы хранит информацию необходимую для принятия решений и решения задач в конкретной области, Рабочая память хранит текущие данные и промежуточные результаты работы экспертной системы</t>
+  </si>
+  <si>
+    <t>База знаний экспертной системы хранит множество продукций, которые в общем случае представляют собой правила</t>
+  </si>
+  <si>
+    <t>Что называют административным противоречием?</t>
+  </si>
+  <si>
+    <t>Ситуация когда существует неготивное явление неизвестной природы, Взаимодействие в системе при котором усиление некоторого полезного действия обязательно влечет усиление какого-то вредного действия, Ситуация когда одни тот же объект должен обладать противоположными свойствами</t>
+  </si>
+  <si>
+    <t>Что называют техническим противоречием?</t>
+  </si>
+  <si>
+    <t>Что называют физическим противоречием?</t>
+  </si>
+  <si>
+    <t>Как называется промежуток времени, в котором проявляется конфликт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оперативное время, Конфликнтый период, Время конфликта
+</t>
+  </si>
+  <si>
+    <t>Верно ли высказывание "Оперативная зона – место, в пределах которого возникает конфликт."</t>
+  </si>
+  <si>
+    <t>да, нет, не знаю</t>
+  </si>
+  <si>
+    <t>Какие первый шаг АРИЗ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализ задачи, Анализ модели задачи, Определение ИКР
+</t>
+  </si>
+  <si>
+    <t>Необходимо ли проанализировать ход решения и дополнить инфофонд после решения задачи.</t>
+  </si>
+  <si>
+    <t>да, нет, по желанию</t>
+  </si>
+  <si>
+    <t>Что является оперативным времянем в данной задаче</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Момент переполнения кэш-памяти, Все время работы программы, Момент помещения новой записи в кэш-память
+</t>
+  </si>
+  <si>
+    <t>С какой целью выполняется архивирование?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уменьшение объема данных, Защита данных от несанкционированного доступа, Защита данных от искажения 
+</t>
+  </si>
+  <si>
+    <t>Что такое "образ записи"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заархивированная запись, Малоразмерная копия записи, Аналогичная по своим свойствам запись но меньшая по объему
+</t>
+  </si>
+  <si>
+    <t>Вопрос 31</t>
+  </si>
+  <si>
+    <t>Вопрос 32</t>
+  </si>
+  <si>
+    <t>Финальное тестирование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +676,28 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -195,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -204,7 +730,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,190 +1038,3654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>52</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>53</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>54</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>33</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>34</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>35</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>36</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>37</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>38</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>39</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>40</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>41</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="4"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>42</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>200</v>
-      </c>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="4"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>43</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="4"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>44</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="4"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>45</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="4"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>46</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="4"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>47</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="4"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>48</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B430" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B431" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B435" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>49</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B439" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B440" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="4"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>50</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A448" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="4"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="7"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="7"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="7"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="7"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="7"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,84 +4697,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
